--- a/xlsx/君主制_intext.xlsx
+++ b/xlsx/君主制_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
   <si>
     <t>君主制</t>
   </si>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>政體</t>
+    <t>政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>君主主義</t>
+    <t>君主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BE%81%E5%A4%A9%E7%9A%87%E5%88%B6</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%96%93%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>人間宣言</t>
+    <t>人间宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%B6</t>
@@ -137,67 +137,67 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>帝國</t>
+    <t>帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>王國</t>
+    <t>王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%97%E5%9C%8B</t>
   </si>
   <si>
-    <t>汗國</t>
+    <t>汗国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>親王國</t>
+    <t>亲王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>大公國</t>
+    <t>大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>公國</t>
+    <t>公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AA%E8%AE%93%E5%88%B6</t>
   </si>
   <si>
-    <t>禪讓制</t>
+    <t>禅让制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%A5%B2%E5%90%9B%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>世襲君主制</t>
+    <t>世袭君主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E5%AF%86%E5%BB%BA%E5%84%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>秘密建儲制</t>
+    <t>秘密建储制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%90%9B%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>選舉君主制</t>
+    <t>选举君主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E4%B8%93%E5%88%B6</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%98%8E%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>開明專制</t>
+    <t>开明专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B8%9D%E5%85%B1%E6%B2%BB%E5%88%B6</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
+    <t>君主立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制君主立憲制</t>
+    <t>议会制君主立宪制</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Non-Sovereign_Monarchy</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E6%9C%9D%E7%A8%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>臨朝稱制</t>
+    <t>临朝称制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%82%E5%B8%98%E5%90%AC%E6%94%BF</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%9C%8B</t>
   </si>
   <si>
-    <t>監國</t>
+    <t>监国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E6%94%BF</t>
   </si>
   <si>
-    <t>攝政</t>
+    <t>摄政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%A5%E7%AB%8B%E5%9B%BD%E7%8E%8B%E8%80%85</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%9A%87%E9%BB%A8</t>
   </si>
   <si>
-    <t>保皇黨</t>
+    <t>保皇党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%88%A9%E5%85%9A</t>
@@ -299,13 +299,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%90%9B%E4%B8%BB%E4%B8%BB%E7%BE%A9%E8%80%85%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>國際君主主義者會議</t>
+    <t>国际君主主义者会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E5%B0%8D%E5%90%9B%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>絕對君主制</t>
+    <t>绝对君主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1910%E5%B9%B410%E6%9C%885%E6%97%A5%E9%9D%A9%E5%91%BD</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/1917%E5%B9%B4%E4%BF%84%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>1917年俄國革命</t>
+    <t>1917年俄国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E5%8D%81%E4%B8%80%E6%9C%88%E9%9D%A9%E5%91%BD</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/1932%E5%B9%B4%E6%B3%B0%E5%9C%8B%E7%AB%8B%E6%86%B2%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>1932年泰國立憲革命</t>
+    <t>1932年泰国立宪革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1946%E5%B9%B4%E7%BE%A9%E5%A4%A7%E5%88%A9%E5%BB%A2%E9%99%A4%E7%8E%8B%E6%94%BF%E5%9C%8B%E6%B0%91%E6%8A%95%E7%A5%A8</t>
   </si>
   <si>
-    <t>1946年義大利廢除王政國民投票</t>
+    <t>1946年义大利废除王政国民投票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E5%8D%A1%E6%B4%9B%E6%96%AF%E4%B8%80%E4%B8%96</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>西班牙內戰</t>
+    <t>西班牙内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94%E5%86%85%E6%88%98</t>
@@ -365,37 +365,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>德意志統一</t>
+    <t>德意志统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%AC%AC%E4%BA%8C%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西第二帝國</t>
+    <t>法兰西第二帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E8%98%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>伊朗伊斯蘭革命</t>
+    <t>伊朗伊斯兰革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬尼亞王國</t>
+    <t>罗马尼亚王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E6%88%B0%E8%A9%94%E6%9B%B8</t>
   </si>
   <si>
-    <t>終戰詔書</t>
+    <t>终战诏书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%94%BF</t>
   </si>
   <si>
-    <t>專政</t>
+    <t>专政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F%E5%88%B6</t>
   </si>
   <si>
-    <t>貴族制</t>
+    <t>贵族制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F%E7%AD%89%E7%B4%9A</t>
   </si>
   <si>
-    <t>貴族等級</t>
+    <t>贵族等级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E5%A4%B4%E5%88%B6</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%95%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>酋長國</t>
+    <t>酋长国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%BD%8D%E6%9C%9F</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%B2%E9%80%8F%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>滲透王朝</t>
+    <t>渗透王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%81%E6%9C%8D%E7%8E%8B%E6%9C%9D</t>
@@ -479,19 +479,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%9B%86%E6%AC%8A</t>
   </si>
   <si>
-    <t>中央集權</t>
+    <t>中央集权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%90%9B%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>反君權運動</t>
+    <t>反君权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%8E%8B%E7%9A%84%E6%96%B0%E8%A1%A3</t>
   </si>
   <si>
-    <t>國王的新衣</t>
+    <t>国王的新衣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Monarchism</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>代議民主制</t>
+    <t>代议民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -551,15 +551,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9D%E5%AF%B9%E5%90%9B%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>绝对君主制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立宪制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E5%A4%B4%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
@@ -569,9 +563,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B5%E6%97%8F%E5%88%B6</t>
   </si>
   <si>
-    <t>贵族制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E6%94%BF</t>
   </si>
   <si>
@@ -587,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>金權政治</t>
+    <t>金权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%8B%E9%98%80%E6%94%BF%E6%B2%BB</t>
@@ -599,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>威權政體</t>
+    <t>威权政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
@@ -611,19 +602,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>威權主義</t>
+    <t>威权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>專制</t>
+    <t>专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>專制主義</t>
+    <t>专制主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -635,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>軍事獨裁</t>
+    <t>军事独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
@@ -647,19 +638,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍國主義</t>
+    <t>军国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>無政府</t>
+    <t>无政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%B0%91%E4%B8%BB%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>半民主狀態</t>
+    <t>半民主状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%AE%98%E7%BB%9F%E6%B2%BB</t>
@@ -671,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神權政治</t>
+    <t>神权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E6%94%BF%E6%B2%BB</t>
@@ -683,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>綠色政治</t>
+    <t>绿色政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%83%E9%A6%96</t>
@@ -701,25 +692,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯帝國</t>
+    <t>阿拉伯帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%A5%B2</t>
   </si>
   <si>
-    <t>世襲</t>
+    <t>世袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9B%BD</t>
@@ -737,13 +728,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
@@ -797,19 +785,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E5%9C%8B</t>
   </si>
   <si>
-    <t>教宗國</t>
+    <t>教宗国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
@@ -833,9 +821,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>獨裁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%90%88%E4%B8%80</t>
   </si>
   <si>
@@ -845,13 +830,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>政教分離</t>
+    <t>政教分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1</t>
   </si>
   <si>
-    <t>傳統</t>
+    <t>传统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%9C%A3%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
@@ -863,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E7%9A%87%E5%B8%9D</t>
   </si>
   <si>
-    <t>羅馬皇帝</t>
+    <t>罗马皇帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%85%8B%E9%87%8C%E5%85%88</t>
@@ -875,13 +860,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E4%B8%BB%E4%B9%89</t>
@@ -899,9 +884,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%B8%9D</t>
   </si>
   <si>
@@ -911,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%8E%8B</t>
   </si>
   <si>
-    <t>國王</t>
+    <t>国王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC</t>
@@ -935,43 +917,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81%E8%80%85</t>
   </si>
   <si>
-    <t>獨裁者</t>
+    <t>独裁者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E5%95%9F%E8%B6%85</t>
   </si>
   <si>
-    <t>梁啟超</t>
+    <t>梁启超</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88</t>
   </si>
   <si>
-    <t>君權神授</t>
+    <t>君权神授</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
+    <t>约旦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%AF%E9%85%8B</t>
   </si>
   <si>
-    <t>阿聯酋</t>
+    <t>阿联酋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A%E8%81%94%E7%9B%9F</t>
@@ -983,21 +965,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
   </si>
   <si>
@@ -1013,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -1025,13 +1004,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -1043,45 +1022,39 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
   </si>
   <si>
-    <t>议会制君主立宪制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>英聯邦王國</t>
+    <t>英联邦王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%B8%BB%E9%82%A6%E8%81%AF</t>
   </si>
   <si>
-    <t>共主邦聯</t>
+    <t>共主邦联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法西斯主義</t>
+    <t>法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%9B%BD</t>
   </si>
   <si>
-    <t>王国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
@@ -1097,25 +1070,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%86%B2%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>立憲運動</t>
+    <t>立宪运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E6%A6%AE%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>光榮革命</t>
+    <t>光荣革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE%E5%90%9B%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>选举君主制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -4050,7 +4020,7 @@
         <v>177</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="G89" t="n">
         <v>8</v>
@@ -4076,10 +4046,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="G90" t="n">
         <v>5</v>
@@ -4105,10 +4075,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4134,10 +4104,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4163,10 +4133,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4192,10 +4162,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4221,10 +4191,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4250,10 +4220,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4279,10 +4249,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4308,10 +4278,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4337,10 +4307,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4366,10 +4336,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G100" t="n">
         <v>11</v>
@@ -4395,10 +4365,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4424,10 +4394,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4453,10 +4423,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4482,10 +4452,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4511,10 +4481,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4540,10 +4510,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4569,10 +4539,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4598,10 +4568,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4627,10 +4597,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4656,10 +4626,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4685,10 +4655,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4714,10 +4684,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4743,10 +4713,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -4772,10 +4742,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G114" t="n">
         <v>4</v>
@@ -4801,10 +4771,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4830,10 +4800,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G116" t="n">
         <v>4</v>
@@ -4859,10 +4829,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G117" t="n">
         <v>7</v>
@@ -4888,10 +4858,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4917,10 +4887,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4946,10 +4916,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4975,10 +4945,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5004,10 +4974,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5033,10 +5003,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5062,10 +5032,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5091,10 +5061,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -5120,10 +5090,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5149,10 +5119,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5178,10 +5148,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5207,10 +5177,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5236,10 +5206,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5265,10 +5235,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5294,10 +5264,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5323,10 +5293,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5352,10 +5322,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>4</v>
@@ -5381,10 +5351,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5410,10 +5380,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="G136" t="n">
         <v>5</v>
@@ -5439,10 +5409,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5468,10 +5438,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5497,10 +5467,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G139" t="n">
         <v>4</v>
@@ -5526,10 +5496,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5555,10 +5525,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F141" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5584,10 +5554,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5613,10 +5583,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F143" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G143" t="n">
         <v>28</v>
@@ -5642,10 +5612,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F144" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G144" t="n">
         <v>38</v>
@@ -5671,10 +5641,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F145" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5700,10 +5670,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G146" t="n">
         <v>13</v>
@@ -5729,10 +5699,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F147" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -5758,10 +5728,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>5</v>
@@ -5787,10 +5757,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -5816,10 +5786,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>4</v>
@@ -5845,10 +5815,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5874,10 +5844,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5903,10 +5873,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -5932,10 +5902,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>4</v>
@@ -5961,10 +5931,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5990,10 +5960,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -6019,10 +5989,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6048,10 +6018,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F158" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6077,10 +6047,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6106,10 +6076,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6135,10 +6105,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6164,10 +6134,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6193,10 +6163,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6222,10 +6192,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6251,10 +6221,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6280,10 +6250,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6309,10 +6279,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6338,10 +6308,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6367,10 +6337,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6396,10 +6366,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6425,10 +6395,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G171" t="n">
         <v>4</v>
@@ -6483,10 +6453,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -6512,10 +6482,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6570,10 +6540,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F176" t="s">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6628,10 +6598,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>72</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6657,10 +6627,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6686,10 +6656,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6715,10 +6685,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6744,10 +6714,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>42</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6802,10 +6772,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6831,10 +6801,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6860,10 +6830,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6889,10 +6859,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6918,10 +6888,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>58</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6947,10 +6917,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -6976,10 +6946,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7005,10 +6975,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>

--- a/xlsx/君主制_intext.xlsx
+++ b/xlsx/君主制_intext.xlsx
@@ -29,7 +29,7 @@
     <t>政治</t>
   </si>
   <si>
-    <t>政策_政策_政治_君主制</t>
+    <t>体育运动_体育运动_古罗马_君主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%84%8F%E8%AF%86%E5%BD%A2%E6%80%81</t>
